--- a/APM files/124406528/124406528 IMPORT Stop Sell Removal.xlsx
+++ b/APM files/124406528/124406528 IMPORT Stop Sell Removal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\124406528\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D18B70-4ACC-4EE0-AE09-6EA32C3977FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9190DE16-8342-4D79-8321-E4BA2E2A4557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15315" yWindow="5280" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="3015" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="6">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +70,25 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -103,19 +115,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -413,13 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -436,6 +475,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>102602143</v>
+      </c>
       <c r="B2">
         <v>124406528</v>
       </c>
@@ -446,7 +488,2521 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>102537921</v>
+      </c>
+      <c r="B3">
+        <v>124406528</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>102537895</v>
+      </c>
+      <c r="B4">
+        <v>124406528</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>102460254</v>
+      </c>
+      <c r="B5">
+        <v>124406528</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>102485976</v>
+      </c>
+      <c r="B6">
+        <v>124406528</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>102602159</v>
+      </c>
+      <c r="B7">
+        <v>124406528</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>102537900</v>
+      </c>
+      <c r="B8">
+        <v>124406528</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>102602160</v>
+      </c>
+      <c r="B9">
+        <v>124406528</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>102460218</v>
+      </c>
+      <c r="B10">
+        <v>124406528</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>102567494</v>
+      </c>
+      <c r="B11">
+        <v>124406528</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>102485963</v>
+      </c>
+      <c r="B12">
+        <v>124406528</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>102485961</v>
+      </c>
+      <c r="B13">
+        <v>124406528</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>102460205</v>
+      </c>
+      <c r="B14">
+        <v>124406528</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>102485962</v>
+      </c>
+      <c r="B15">
+        <v>124406528</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>102602155</v>
+      </c>
+      <c r="B16">
+        <v>124406528</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>102567490</v>
+      </c>
+      <c r="B17">
+        <v>124406528</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>102602154</v>
+      </c>
+      <c r="B18">
+        <v>124406528</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>102460202</v>
+      </c>
+      <c r="B19">
+        <v>124406528</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>102485946</v>
+      </c>
+      <c r="B20">
+        <v>124406528</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>102602148</v>
+      </c>
+      <c r="B21">
+        <v>124406528</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>102460190</v>
+      </c>
+      <c r="B22">
+        <v>124406528</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>102485855</v>
+      </c>
+      <c r="B23">
+        <v>124406528</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>102485856</v>
+      </c>
+      <c r="B24">
+        <v>124406528</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>102485858</v>
+      </c>
+      <c r="B25">
+        <v>124406528</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>102485853</v>
+      </c>
+      <c r="B26">
+        <v>124406528</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>102485844</v>
+      </c>
+      <c r="B27">
+        <v>124406528</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>102567478</v>
+      </c>
+      <c r="B28">
+        <v>124406528</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>102602140</v>
+      </c>
+      <c r="B29">
+        <v>124406528</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>102602163</v>
+      </c>
+      <c r="B30">
+        <v>124406528</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>102567496</v>
+      </c>
+      <c r="B31">
+        <v>124406528</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>102537886</v>
+      </c>
+      <c r="B32">
+        <v>124406528</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>102567484</v>
+      </c>
+      <c r="B33">
+        <v>124406528</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>102460198</v>
+      </c>
+      <c r="B34">
+        <v>124406528</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>102460197</v>
+      </c>
+      <c r="B35">
+        <v>124406528</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>102567483</v>
+      </c>
+      <c r="B36">
+        <v>124406528</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>102485924</v>
+      </c>
+      <c r="B37">
+        <v>124406528</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>102485921</v>
+      </c>
+      <c r="B38">
+        <v>124406528</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>102485918</v>
+      </c>
+      <c r="B39">
+        <v>124406528</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>102460192</v>
+      </c>
+      <c r="B40">
+        <v>124406528</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>102485863</v>
+      </c>
+      <c r="B41">
+        <v>124406528</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>102537899</v>
+      </c>
+      <c r="B42">
+        <v>124406528</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>102537893</v>
+      </c>
+      <c r="B43">
+        <v>124406528</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>102494456</v>
+      </c>
+      <c r="B44">
+        <v>124406528</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>102602156</v>
+      </c>
+      <c r="B45">
+        <v>124406528</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>102567491</v>
+      </c>
+      <c r="B46">
+        <v>124406528</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>102460206</v>
+      </c>
+      <c r="B47">
+        <v>124406528</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>102460195</v>
+      </c>
+      <c r="B48">
+        <v>124406528</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>102460187</v>
+      </c>
+      <c r="B49">
+        <v>124406528</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>102485909</v>
+      </c>
+      <c r="B50">
+        <v>124406528</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>102485847</v>
+      </c>
+      <c r="B51">
+        <v>124406528</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>101545095</v>
+      </c>
+      <c r="B52">
+        <v>124406528</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>102494478</v>
+      </c>
+      <c r="B53">
+        <v>124406528</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>102494475</v>
+      </c>
+      <c r="B54">
+        <v>124406528</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>102567495</v>
+      </c>
+      <c r="B55">
+        <v>124406528</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>102485920</v>
+      </c>
+      <c r="B56">
+        <v>124406528</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>102460172</v>
+      </c>
+      <c r="B57">
+        <v>124406528</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>102567479</v>
+      </c>
+      <c r="B58">
+        <v>124406528</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>102602145</v>
+      </c>
+      <c r="B59">
+        <v>124406528</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>102567467</v>
+      </c>
+      <c r="B60">
+        <v>124406528</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>102602142</v>
+      </c>
+      <c r="B61">
+        <v>124406528</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>102567471</v>
+      </c>
+      <c r="B62">
+        <v>124406528</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>102567469</v>
+      </c>
+      <c r="B63">
+        <v>124406528</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>102602139</v>
+      </c>
+      <c r="B64">
+        <v>124406528</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>102537906</v>
+      </c>
+      <c r="B65">
+        <v>124406528</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>102537891</v>
+      </c>
+      <c r="B66">
+        <v>124406528</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>102485989</v>
+      </c>
+      <c r="B67">
+        <v>124406528</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>102567493</v>
+      </c>
+      <c r="B68">
+        <v>124406528</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>102537885</v>
+      </c>
+      <c r="B69">
+        <v>124406528</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>102460217</v>
+      </c>
+      <c r="B70">
+        <v>124406528</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>102460214</v>
+      </c>
+      <c r="B71">
+        <v>124406528</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>102602158</v>
+      </c>
+      <c r="B72">
+        <v>124406528</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>102567482</v>
+      </c>
+      <c r="B73">
+        <v>124406528</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>102485900</v>
+      </c>
+      <c r="B74">
+        <v>124406528</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>102460186</v>
+      </c>
+      <c r="B75">
+        <v>124406528</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>102460179</v>
+      </c>
+      <c r="B76">
+        <v>124406528</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>102485846</v>
+      </c>
+      <c r="B77">
+        <v>124406528</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>102537905</v>
+      </c>
+      <c r="B78">
+        <v>124406528</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>102460261</v>
+      </c>
+      <c r="B79">
+        <v>124406528</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>102537898</v>
+      </c>
+      <c r="B80">
+        <v>124406528</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>102460249</v>
+      </c>
+      <c r="B81">
+        <v>124406528</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>102537892</v>
+      </c>
+      <c r="B82">
+        <v>124406528</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>102460247</v>
+      </c>
+      <c r="B83">
+        <v>124406528</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>102460215</v>
+      </c>
+      <c r="B84">
+        <v>124406528</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>102537890</v>
+      </c>
+      <c r="B85">
+        <v>124406528</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>102460174</v>
+      </c>
+      <c r="B86">
+        <v>124406528</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>102485852</v>
+      </c>
+      <c r="B87">
+        <v>124406528</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>102485849</v>
+      </c>
+      <c r="B88">
+        <v>124406528</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>102485843</v>
+      </c>
+      <c r="B89">
+        <v>124406528</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>102567468</v>
+      </c>
+      <c r="B90">
+        <v>124406528</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>102567465</v>
+      </c>
+      <c r="B91">
+        <v>124406528</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>102602133</v>
+      </c>
+      <c r="B92">
+        <v>124406528</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>102602130</v>
+      </c>
+      <c r="B93">
+        <v>124406528</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>102602131</v>
+      </c>
+      <c r="B94">
+        <v>124406528</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>102602126</v>
+      </c>
+      <c r="B95">
+        <v>124406528</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>102602124</v>
+      </c>
+      <c r="B96">
+        <v>124406528</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>102537909</v>
+      </c>
+      <c r="B97">
+        <v>124406528</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>102476691</v>
+      </c>
+      <c r="B98">
+        <v>124406528</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>102537904</v>
+      </c>
+      <c r="B99">
+        <v>124406528</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>102460274</v>
+      </c>
+      <c r="B100">
+        <v>124406528</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>102567511</v>
+      </c>
+      <c r="B101">
+        <v>124406528</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>102494426</v>
+      </c>
+      <c r="B102">
+        <v>124406528</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>102602164</v>
+      </c>
+      <c r="B103">
+        <v>124406528</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>102537888</v>
+      </c>
+      <c r="B104">
+        <v>124406528</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>102460213</v>
+      </c>
+      <c r="B105">
+        <v>124406528</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>102460184</v>
+      </c>
+      <c r="B106">
+        <v>124406528</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>102567472</v>
+      </c>
+      <c r="B107">
+        <v>124406528</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>102537925</v>
+      </c>
+      <c r="B108">
+        <v>124406528</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>102537920</v>
+      </c>
+      <c r="B109">
+        <v>124406528</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>102602117</v>
+      </c>
+      <c r="B110">
+        <v>124406528</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>102602115</v>
+      </c>
+      <c r="B111">
+        <v>124406528</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>102537916</v>
+      </c>
+      <c r="B112">
+        <v>124406528</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>102537919</v>
+      </c>
+      <c r="B113">
+        <v>124406528</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>102460260</v>
+      </c>
+      <c r="B114">
+        <v>124406528</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>102485917</v>
+      </c>
+      <c r="B115">
+        <v>124406528</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>102485915</v>
+      </c>
+      <c r="B116">
+        <v>124406528</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>102485914</v>
+      </c>
+      <c r="B117">
+        <v>124406528</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>102460182</v>
+      </c>
+      <c r="B118">
+        <v>124406528</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>102485864</v>
+      </c>
+      <c r="B119">
+        <v>124406528</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>102485860</v>
+      </c>
+      <c r="B120">
+        <v>124406528</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>100849376</v>
+      </c>
+      <c r="B121">
+        <v>124406528</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>100694639</v>
+      </c>
+      <c r="B122">
+        <v>124406528</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>102602147</v>
+      </c>
+      <c r="B123">
+        <v>124406528</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>102567474</v>
+      </c>
+      <c r="B124">
+        <v>124406528</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>102567464</v>
+      </c>
+      <c r="B125">
+        <v>124406528</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>102602123</v>
+      </c>
+      <c r="B126">
+        <v>124406528</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>102537928</v>
+      </c>
+      <c r="B127">
+        <v>124406528</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>102537927</v>
+      </c>
+      <c r="B128">
+        <v>124406528</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>102602116</v>
+      </c>
+      <c r="B129">
+        <v>124406528</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>102460246</v>
+      </c>
+      <c r="B130">
+        <v>124406528</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>102485992</v>
+      </c>
+      <c r="B131">
+        <v>124406528</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>102485988</v>
+      </c>
+      <c r="B132">
+        <v>124406528</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>102567492</v>
+      </c>
+      <c r="B133">
+        <v>124406528</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>102485919</v>
+      </c>
+      <c r="B134">
+        <v>124406528</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>102460188</v>
+      </c>
+      <c r="B135">
+        <v>124406528</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>102460175</v>
+      </c>
+      <c r="B136">
+        <v>124406528</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>102460176</v>
+      </c>
+      <c r="B137">
+        <v>124406528</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>102460171</v>
+      </c>
+      <c r="B138">
+        <v>124406528</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>102567476</v>
+      </c>
+      <c r="B139">
+        <v>124406528</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>102567475</v>
+      </c>
+      <c r="B140">
+        <v>124406528</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>102537929</v>
+      </c>
+      <c r="B141">
+        <v>124406528</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>102537930</v>
+      </c>
+      <c r="B142">
+        <v>124406528</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>102625131</v>
+      </c>
+      <c r="B143">
+        <v>124406528</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>102481783</v>
+      </c>
+      <c r="B144">
+        <v>124406528</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>102460248</v>
+      </c>
+      <c r="B145">
+        <v>124406528</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>102567500</v>
+      </c>
+      <c r="B146">
+        <v>124406528</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>102567481</v>
+      </c>
+      <c r="B147">
+        <v>124406528</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>102460194</v>
+      </c>
+      <c r="B148">
+        <v>124406528</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>102460189</v>
+      </c>
+      <c r="B149">
+        <v>124406528</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>102485910</v>
+      </c>
+      <c r="B150">
+        <v>124406528</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>102460183</v>
+      </c>
+      <c r="B151">
+        <v>124406528</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>102460177</v>
+      </c>
+      <c r="B152">
+        <v>124406528</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>102602134</v>
+      </c>
+      <c r="B153">
+        <v>124406528</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>102567470</v>
+      </c>
+      <c r="B154">
+        <v>124406528</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>102567466</v>
+      </c>
+      <c r="B155">
+        <v>124406528</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>102567473</v>
+      </c>
+      <c r="B156">
+        <v>124406528</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>102602122</v>
+      </c>
+      <c r="B157">
+        <v>124406528</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>102537926</v>
+      </c>
+      <c r="B158">
+        <v>124406528</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>102537917</v>
+      </c>
+      <c r="B159">
+        <v>124406528</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>102460262</v>
+      </c>
+      <c r="B160">
+        <v>124406528</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>102537907</v>
+      </c>
+      <c r="B161">
+        <v>124406528</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>102567508</v>
+      </c>
+      <c r="B162">
+        <v>124406528</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>102460219</v>
+      </c>
+      <c r="B163">
+        <v>124406528</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>102602161</v>
+      </c>
+      <c r="B164">
+        <v>124406528</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>102460209</v>
+      </c>
+      <c r="B165">
+        <v>124406528</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>102485957</v>
+      </c>
+      <c r="B166">
+        <v>124406528</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>102567488</v>
+      </c>
+      <c r="B167">
+        <v>124406528</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>102567485</v>
+      </c>
+      <c r="B168">
+        <v>124406528</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>102497659</v>
+      </c>
+      <c r="B169">
+        <v>124406528</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>102460256</v>
+      </c>
+      <c r="B170">
+        <v>124406528</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>102537894</v>
+      </c>
+      <c r="B171">
+        <v>124406528</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>102460257</v>
+      </c>
+      <c r="B172">
+        <v>124406528</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>102494435</v>
+      </c>
+      <c r="B173">
+        <v>124406528</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>102485958</v>
+      </c>
+      <c r="B174">
+        <v>124406528</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>102602157</v>
+      </c>
+      <c r="B175">
+        <v>124406528</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>102460204</v>
+      </c>
+      <c r="B176">
+        <v>124406528</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>102485945</v>
+      </c>
+      <c r="B177">
+        <v>124406528</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>102602141</v>
+      </c>
+      <c r="B178">
+        <v>124406528</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>102485859</v>
+      </c>
+      <c r="B179">
+        <v>124406528</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>102460178</v>
+      </c>
+      <c r="B180">
+        <v>124406528</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>102485851</v>
+      </c>
+      <c r="B181">
+        <v>124406528</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A181">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="fasle">
+      <formula>NOT(ISERROR(SEARCH("fasle",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>